--- a/Views.xlsx
+++ b/Views.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Deutschland</t>
         </is>
@@ -496,7 +496,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Baden-Württemberg</t>
         </is>
@@ -521,7 +521,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Bayern</t>
         </is>
@@ -546,7 +546,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Berlin</t>
         </is>
@@ -571,7 +571,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Brandenburg</t>
         </is>
@@ -596,7 +596,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Bremen</t>
         </is>
@@ -621,7 +621,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Hamburg</t>
         </is>
@@ -646,7 +646,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Hessen</t>
         </is>
@@ -671,7 +671,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Mecklenburg-Vorpommern</t>
         </is>
@@ -696,7 +696,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Niedersachsen</t>
         </is>
@@ -721,7 +721,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Nordrhein-Westfalen</t>
         </is>
@@ -746,7 +746,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Rheinland-Pfalz</t>
         </is>
@@ -771,7 +771,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Saarland</t>
         </is>
@@ -796,7 +796,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Sachsen</t>
         </is>
@@ -821,7 +821,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Sachsen-Anhalt</t>
         </is>
@@ -846,7 +846,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Schleswig-Holstein</t>
         </is>
@@ -871,7 +871,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Thüringen</t>
         </is>
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Berlin</t>
         </is>
@@ -921,7 +921,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Hamburg</t>
         </is>
@@ -946,7 +946,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>München</t>
         </is>
@@ -971,7 +971,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Köln</t>
         </is>
@@ -996,7 +996,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Frankfurt</t>
         </is>
@@ -1021,7 +1021,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
@@ -1046,7 +1046,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Düsseldorf</t>
         </is>
@@ -1071,7 +1071,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
@@ -1096,7 +1096,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Essen</t>
         </is>
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Leipzig</t>
         </is>
@@ -1146,7 +1146,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Bremen</t>
         </is>
@@ -1171,7 +1171,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Dresden</t>
         </is>
@@ -1196,7 +1196,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Hanover</t>
         </is>
@@ -1221,7 +1221,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Nürnberg</t>
         </is>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Duisberg</t>
         </is>
@@ -1271,7 +1271,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Bochum</t>
         </is>
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Wuppertal</t>
         </is>
@@ -1321,7 +1321,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Bielefeld</t>
         </is>
@@ -1346,7 +1346,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Bonn</t>
         </is>
@@ -1371,7 +1371,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Münster</t>
         </is>
@@ -1396,7 +1396,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Karlsruhe</t>
         </is>
@@ -1418,6 +1418,31 @@
       </c>
       <c r="G39" t="n">
         <v>49.073</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Erlangen</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>49.5928616</v>
+      </c>
+      <c r="C40" t="n">
+        <v>11.0056</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10.8556</v>
+      </c>
+      <c r="E40" t="n">
+        <v>49.4428616</v>
+      </c>
+      <c r="F40" t="n">
+        <v>11.1556</v>
+      </c>
+      <c r="G40" t="n">
+        <v>49.7428616</v>
       </c>
     </row>
   </sheetData>

--- a/Views.xlsx
+++ b/Views.xlsx
@@ -1433,16 +1433,16 @@
         <v>11.0056</v>
       </c>
       <c r="D40" t="n">
-        <v>10.8556</v>
+        <v>10.9153629</v>
       </c>
       <c r="E40" t="n">
-        <v>49.4428616</v>
+        <v>49.5327088</v>
       </c>
       <c r="F40" t="n">
-        <v>11.1556</v>
+        <v>11.0536043</v>
       </c>
       <c r="G40" t="n">
-        <v>49.7428616</v>
+        <v>49.6455844</v>
       </c>
     </row>
   </sheetData>
